--- a/Lab2/Buffers.xlsx
+++ b/Lab2/Buffers.xlsx
@@ -31,8 +31,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -60,8 +68,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -356,15 +367,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C101"/>
+  <dimension ref="A1:F101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -374,8 +385,15 @@
       <c r="C1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1">
+        <v>0</v>
+      </c>
+      <c r="E1">
+        <f>COUNTIF(C:C,D1)/MAX(B:B)*24000000</f>
+        <v>20312.37977994922</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>0</v>
       </c>
@@ -385,332 +403,377 @@
       <c r="C2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <f t="shared" ref="E2:E5" si="0">COUNTIF(C:C,D2)/MAX(B:B)*24000000</f>
+        <v>53550.819419866122</v>
+      </c>
+      <c r="F2">
+        <f>SUM(E2:E4)*3/8</f>
+        <v>41548.049549896125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <f t="shared" si="0"/>
+        <v>51704.23943987074</v>
+      </c>
+      <c r="F3">
+        <f>E5*3/8</f>
+        <v>20081.557282449794</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>5539.7399399861506</v>
+      </c>
+      <c r="F4">
+        <f>SUM(E2:E5)*3/8</f>
+        <v>61629.606832345919</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>53550.819419866122</v>
+      </c>
+      <c r="F5">
+        <f>SUM(E2:E5)*2</f>
+        <v>328691.23643917823</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <v>13</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7">
+        <v>44</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8">
+        <v>50</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9">
+        <v>56</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10">
+        <v>73</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11">
+        <v>77</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12">
+        <v>96</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13">
         <v>251</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4">
+      <c r="C13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14">
         <v>305</v>
       </c>
-      <c r="C4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5">
+      <c r="C14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15">
+        <v>4</v>
+      </c>
+      <c r="B15">
+        <v>530</v>
+      </c>
+      <c r="C15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16">
+        <v>5</v>
+      </c>
+      <c r="B16">
+        <v>775</v>
+      </c>
+      <c r="C16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17">
+        <v>7</v>
+      </c>
+      <c r="B17">
+        <v>1189</v>
+      </c>
+      <c r="C17">
         <v>3</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>530</v>
-      </c>
-      <c r="C6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>775</v>
-      </c>
-      <c r="C7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>1189</v>
-      </c>
-      <c r="C9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11">
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18">
         <v>9</v>
       </c>
-      <c r="B11">
+      <c r="B18">
         <v>1235</v>
       </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12">
+      <c r="C18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="2">
         <v>10</v>
       </c>
-      <c r="B12">
+      <c r="B19" s="1">
         <v>1337</v>
       </c>
-      <c r="C12">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13">
+      <c r="C19" s="2">
+        <v>4</v>
+      </c>
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20">
         <v>11</v>
       </c>
-      <c r="B13">
+      <c r="B20">
         <v>1519</v>
       </c>
-      <c r="C13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14">
+      <c r="C20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21">
         <v>12</v>
       </c>
-      <c r="B14">
+      <c r="B21">
         <v>1801</v>
       </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15">
-        <v>13</v>
-      </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16">
+      <c r="C21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22">
         <v>14</v>
       </c>
-      <c r="B16">
+      <c r="B22">
         <v>1899</v>
       </c>
-      <c r="C16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17">
+      <c r="C22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23">
         <v>15</v>
       </c>
-      <c r="B17">
+      <c r="B23">
         <v>1988</v>
       </c>
-      <c r="C17">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18">
+      <c r="C23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24">
         <v>16</v>
       </c>
-      <c r="B18">
+      <c r="B24">
         <v>2181</v>
       </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19">
+      <c r="C24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25">
         <v>17</v>
       </c>
-      <c r="B19">
+      <c r="B25">
         <v>2279</v>
       </c>
-      <c r="C19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20">
+      <c r="C25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26">
         <v>18</v>
       </c>
-      <c r="B20">
+      <c r="B26">
         <v>2352</v>
       </c>
-      <c r="C20">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21">
+      <c r="C26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27">
         <v>19</v>
       </c>
-      <c r="B21">
+      <c r="B27">
         <v>2561</v>
       </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22">
+      <c r="C27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28">
         <v>20</v>
       </c>
-      <c r="B22">
+      <c r="B28">
         <v>2659</v>
       </c>
-      <c r="C22">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23">
+      <c r="C28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29">
         <v>21</v>
       </c>
-      <c r="B23">
+      <c r="B29">
         <v>2735</v>
       </c>
-      <c r="C23">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24">
+      <c r="C29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30">
         <v>22</v>
       </c>
-      <c r="B24">
+      <c r="B30">
         <v>2941</v>
       </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25">
+      <c r="C30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31">
         <v>23</v>
       </c>
-      <c r="B25">
+      <c r="B31">
         <v>3039</v>
       </c>
-      <c r="C25">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26">
+      <c r="C31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32">
         <v>24</v>
       </c>
-      <c r="B26">
+      <c r="B32">
         <v>3149</v>
-      </c>
-      <c r="C26">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27">
-        <v>25</v>
-      </c>
-      <c r="B27">
-        <v>3321</v>
-      </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28">
-        <v>26</v>
-      </c>
-      <c r="B28">
-        <v>3419</v>
-      </c>
-      <c r="C28">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29">
-        <v>27</v>
-      </c>
-      <c r="B29">
-        <v>3572</v>
-      </c>
-      <c r="C29">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30">
-        <v>28</v>
-      </c>
-      <c r="B30">
-        <v>3799</v>
-      </c>
-      <c r="C30">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31">
-        <v>29</v>
-      </c>
-      <c r="B31">
-        <v>3895</v>
-      </c>
-      <c r="C31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32">
-        <v>30</v>
-      </c>
-      <c r="B32">
-        <v>4025</v>
       </c>
       <c r="C32">
         <v>4</v>
@@ -718,54 +781,54 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B33">
-        <v>4179</v>
+        <v>3321</v>
       </c>
       <c r="C33">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B34">
-        <v>4275</v>
+        <v>3419</v>
       </c>
       <c r="C34">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B35">
-        <v>4373</v>
+        <v>3572</v>
       </c>
       <c r="C35">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B36">
-        <v>4501</v>
+        <v>3799</v>
       </c>
       <c r="C36">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B37">
-        <v>4655</v>
+        <v>3895</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -773,32 +836,32 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B38">
-        <v>4753</v>
+        <v>4025</v>
       </c>
       <c r="C38">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B39">
-        <v>4849</v>
+        <v>4179</v>
       </c>
       <c r="C39">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B40">
-        <v>4895</v>
+        <v>4275</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -806,32 +869,32 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B41">
-        <v>4999</v>
+        <v>4373</v>
       </c>
       <c r="C41">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B42">
-        <v>5180</v>
+        <v>4501</v>
       </c>
       <c r="C42">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B43">
-        <v>5276</v>
+        <v>4655</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -839,10 +902,10 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B44">
-        <v>5374</v>
+        <v>4753</v>
       </c>
       <c r="C44">
         <v>2</v>
@@ -850,32 +913,32 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B45">
-        <v>5521</v>
+        <v>4849</v>
       </c>
       <c r="C45">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B46">
-        <v>0</v>
+        <v>4895</v>
       </c>
       <c r="C46">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B47">
-        <v>5720</v>
+        <v>4999</v>
       </c>
       <c r="C47">
         <v>4</v>
@@ -883,43 +946,43 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B48">
-        <v>5944</v>
+        <v>5180</v>
       </c>
       <c r="C48">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B49">
-        <v>6126</v>
+        <v>5276</v>
       </c>
       <c r="C49">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B50">
-        <v>6190</v>
+        <v>5374</v>
       </c>
       <c r="C50">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B51">
-        <v>6459</v>
+        <v>5521</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -927,21 +990,21 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>5720</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B53">
-        <v>6750</v>
+        <v>5944</v>
       </c>
       <c r="C53">
         <v>4</v>
@@ -949,21 +1012,21 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B54">
-        <v>6974</v>
+        <v>6126</v>
       </c>
       <c r="C54">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B55">
-        <v>7067</v>
+        <v>6190</v>
       </c>
       <c r="C55">
         <v>4</v>
@@ -971,65 +1034,65 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B56">
-        <v>7258</v>
+        <v>6459</v>
       </c>
       <c r="C56">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B57">
-        <v>7405</v>
+        <v>6750</v>
       </c>
       <c r="C57">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B58">
-        <v>0</v>
+        <v>6974</v>
       </c>
       <c r="C58">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B59">
-        <v>7638</v>
+        <v>7067</v>
       </c>
       <c r="C59">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B60">
-        <v>7766</v>
+        <v>7258</v>
       </c>
       <c r="C60">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B61">
-        <v>7920</v>
+        <v>7405</v>
       </c>
       <c r="C61">
         <v>1</v>
@@ -1037,10 +1100,10 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B62">
-        <v>8018</v>
+        <v>7638</v>
       </c>
       <c r="C62">
         <v>2</v>
@@ -1048,10 +1111,10 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B63">
-        <v>8148</v>
+        <v>7766</v>
       </c>
       <c r="C63">
         <v>4</v>
@@ -1059,274 +1122,275 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64">
+        <v>59</v>
+      </c>
+      <c r="B64">
+        <v>7920</v>
+      </c>
+      <c r="C64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65">
+        <v>60</v>
+      </c>
+      <c r="B65">
+        <v>8018</v>
+      </c>
+      <c r="C65">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66">
+        <v>61</v>
+      </c>
+      <c r="B66">
+        <v>8148</v>
+      </c>
+      <c r="C66">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67">
         <v>62</v>
       </c>
-      <c r="B64">
+      <c r="B67">
         <v>8300</v>
       </c>
-      <c r="C64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
-      <c r="A65">
+      <c r="C67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68">
         <v>63</v>
       </c>
-      <c r="B65">
+      <c r="B68">
         <v>8398</v>
       </c>
-      <c r="C65">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
-      <c r="A66">
+      <c r="C68">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69">
         <v>64</v>
       </c>
-      <c r="B66">
+      <c r="B69">
         <v>8494</v>
       </c>
-      <c r="C66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
-      <c r="A67">
+      <c r="C69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70">
         <v>65</v>
       </c>
-      <c r="B67">
+      <c r="B70">
         <v>8555</v>
       </c>
-      <c r="C67">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
-      <c r="A68">
+      <c r="C70">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71">
         <v>66</v>
       </c>
-      <c r="B68">
+      <c r="B71">
         <v>8778</v>
       </c>
-      <c r="C68">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
-      <c r="A69">
+      <c r="C71">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72">
         <v>67</v>
       </c>
-      <c r="B69">
+      <c r="B72">
         <v>8874</v>
       </c>
-      <c r="C69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
-      <c r="A70">
+      <c r="C72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73">
         <v>68</v>
       </c>
-      <c r="B70">
+      <c r="B73">
         <v>8985</v>
       </c>
-      <c r="C70">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
-      <c r="A71">
+      <c r="C73">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74">
         <v>69</v>
       </c>
-      <c r="B71">
+      <c r="B74">
         <v>9158</v>
       </c>
-      <c r="C71">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
-      <c r="A72">
+      <c r="C74">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75">
         <v>70</v>
       </c>
-      <c r="B72">
+      <c r="B75">
         <v>9254</v>
       </c>
-      <c r="C72">
+      <c r="C75">
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
-      <c r="A73">
+    <row r="76" spans="1:4">
+      <c r="A76" s="3">
         <v>71</v>
       </c>
-      <c r="B73">
+      <c r="B76" s="3">
         <v>9300</v>
       </c>
-      <c r="C73">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
-      <c r="A74">
+      <c r="C76" s="3">
+        <v>1</v>
+      </c>
+      <c r="D76" s="3"/>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77">
         <v>72</v>
       </c>
-      <c r="B74">
+      <c r="B77">
         <v>9584</v>
       </c>
-      <c r="C74">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
-      <c r="A75">
-        <v>73</v>
-      </c>
-      <c r="B75">
-        <v>0</v>
-      </c>
-      <c r="C75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
-      <c r="A76">
+      <c r="C77">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78">
         <v>74</v>
       </c>
-      <c r="B76">
+      <c r="B78">
         <v>9680</v>
       </c>
-      <c r="C76">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
-      <c r="A77">
+      <c r="C78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79">
         <v>75</v>
       </c>
-      <c r="B77">
+      <c r="B79">
         <v>9778</v>
       </c>
-      <c r="C77">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
-      <c r="A78">
+      <c r="C79">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80">
         <v>76</v>
       </c>
-      <c r="B78">
+      <c r="B80">
         <v>10060</v>
       </c>
-      <c r="C78">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
-      <c r="A79">
-        <v>77</v>
-      </c>
-      <c r="B79">
-        <v>0</v>
-      </c>
-      <c r="C79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
-      <c r="A80">
-        <v>78</v>
-      </c>
-      <c r="B80">
-        <v>10158</v>
-      </c>
       <c r="C80">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B81">
-        <v>10254</v>
+        <v>10158</v>
       </c>
       <c r="C81">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B82">
-        <v>10352</v>
+        <v>10254</v>
       </c>
       <c r="C82">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B83">
-        <v>10413</v>
+        <v>10352</v>
       </c>
       <c r="C83">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B84">
-        <v>10635</v>
+        <v>10413</v>
       </c>
       <c r="C84">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B85">
-        <v>10733</v>
+        <v>10635</v>
       </c>
       <c r="C85">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B86">
-        <v>10829</v>
+        <v>10733</v>
       </c>
       <c r="C86">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B87">
-        <v>10936</v>
+        <v>10829</v>
       </c>
       <c r="C87">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B88">
-        <v>11136</v>
+        <v>10936</v>
       </c>
       <c r="C88">
         <v>4</v>
@@ -1334,32 +1398,32 @@
     </row>
     <row r="89" spans="1:3">
       <c r="A89">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B89">
-        <v>11299</v>
+        <v>11136</v>
       </c>
       <c r="C89">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B90">
-        <v>11360</v>
+        <v>11299</v>
       </c>
       <c r="C90">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B91">
-        <v>11604</v>
+        <v>11360</v>
       </c>
       <c r="C91">
         <v>4</v>
@@ -1367,79 +1431,79 @@
     </row>
     <row r="92" spans="1:3">
       <c r="A92">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B92">
-        <v>11767</v>
+        <v>11604</v>
       </c>
       <c r="C92">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B93">
-        <v>11874</v>
+        <v>11767</v>
       </c>
       <c r="C93">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B94">
-        <v>12051</v>
+        <v>11874</v>
       </c>
       <c r="C94">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B95">
-        <v>12165</v>
+        <v>12051</v>
       </c>
       <c r="C95">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B96">
-        <v>12333</v>
+        <v>12165</v>
       </c>
       <c r="C96">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B97">
-        <v>12482</v>
+        <v>12333</v>
       </c>
       <c r="C97">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B98">
-        <v>0</v>
+        <v>12482</v>
       </c>
       <c r="C98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -1476,7 +1540,11 @@
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:C101">
+    <sortCondition ref="B2:B101"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
